--- a/resources/02 Adjectives.xlsx
+++ b/resources/02 Adjectives.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/projects/education/languages/deutsch/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB051F-3BE8-FE4C-A80B-786376A34A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9671D74D-D758-1040-B0C1-8275AC3D9E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>Essen</t>
   </si>
@@ -347,6 +347,21 @@
   </si>
   <si>
     <t>dark</t>
+  </si>
+  <si>
+    <t>klug</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>ˈʃvaitsɐ</t>
+  </si>
+  <si>
+    <t>Schweizer</t>
+  </si>
+  <si>
+    <t>Suiezo</t>
   </si>
 </sst>
 </file>
@@ -735,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1102,6 +1117,25 @@
       </c>
       <c r="B47" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
